--- a/biology/Botanique/Frank_Walton_Gould/Frank_Walton_Gould.xlsx
+++ b/biology/Botanique/Frank_Walton_Gould/Frank_Walton_Gould.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank Walton Gould, né le 25 juillet 1913 à Mayville, au Dakota du Nord, et mort en 1981[1], est un botaniste et agrostologue américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Walton Gould, né le 25 juillet 1913 à Mayville, au Dakota du Nord, et mort en 1981, est un botaniste et agrostologue américain.
 Il fut un spécialiste renommé dans l'étude des pâturages à l'université A&amp;M du Texas, jusqu'à sa retraite comme professeur émérite en systématique des graminées.
 </t>
         </is>
@@ -512,17 +524,53 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Evolution and Systematics of the Gramineae: The Twenty-Sixth Systematics Symposium. Annals of the Missouri Botanical Garden 68(1): 4
-Œuvres
-1940, 1993. Grasses of the Southwestern United States. Ed. Univ Arizona.  (ISBN 0-8165-0406-7)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Evolution and Systematics of the Gramineae: The Twenty-Sixth Systematics Symposium. Annals of the Missouri Botanical Garden 68(1): 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Frank_Walton_Gould</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Walton_Gould</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1940, 1993. Grasses of the Southwestern United States. Ed. Univ Arizona.  (ISBN 0-8165-0406-7)
 A Key to the Genera of Mexican Grasses. 46 p.
 Gould, FW; TW Box. 1965. Grasses of the Texas Coastal Bend: Calhoun, Refugio, Aranas, San Patricio and northern Kleberg Counties. Ed. Texas A&amp;M University Press. 186 p.
 1975. The Grasses of Texas. Ed. Texas A&amp;M University Press, College Station. 664 p.  (ISBN 1-58544-006-X)
 1978. Common Texas Grasses: An Illustrated Guide. Ed. Texas A&amp;M University Press. 267 p.  (ISBN 0-89096-058-5)
 Gould, FW.; M. Reid. 1981. The grasses of Baja California, México. 140 p.
-Gould, FW; RB Shaw. 1983. Grass Systematics. Ed. Texas A &amp; M University Press,, College Station. 635 p.  (ISBN 0-89096-145-X)</t>
+Gould, FW; RB Shaw. 1983. Grass Systematics. Ed. Texas A &amp; M University Press College Station. 635 p.  (ISBN 0-89096-145-X)</t>
         </is>
       </c>
     </row>
